--- a/data/extracted_data/raw_round2/data/Miller_etal_2010_Table3.xlsx
+++ b/data/extracted_data/raw_round2/data/Miller_etal_2010_Table3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{28677DD4-B0A4-634C-8874-A76FFF76C7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1121DC36-C704-1541-844F-3A70C278F34A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{28677DD4-B0A4-634C-8874-A76FFF76C7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D89D7E95-D690-C745-9068-A51D1EFBAD30}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{6117C452-71CC-6647-9465-053B12D69BF7}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>dungeness crab</t>
   </si>
   <si>
-    <t>tebula snail</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>tegula snail</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,16 +430,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -447,7 +447,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -517,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>14</v>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>21</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -629,7 +629,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -643,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>21</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>7</v>
